--- a/biology/Botanique/Ardisia_oligantha/Ardisia_oligantha.xlsx
+++ b/biology/Botanique/Ardisia_oligantha/Ardisia_oligantha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ardisia oligantha est une espèce de plantes à fleurs de la famille des Primulaceae (classification APGIII, ou des Myrsinaceae dans des classifications précédentes). Elle est considérée comme en danger critique d'extinction, voire disparue.
 </t>
@@ -511,12 +523,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette plante herbacée a été initialement nommée Afrardisia oligantha par Gilg et G.Schellenberg en 1912, puis renommée Ardisia oligantha par Auguste Simon Taton en 1979 qui est le nom correct à présent[4].
-Elle est classée dans l'index international des noms des plantes, l'IPNI[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante herbacée a été initialement nommée Afrardisia oligantha par Gilg et G.Schellenberg en 1912, puis renommée Ardisia oligantha par Auguste Simon Taton en 1979 qui est le nom correct à présent.
+Elle est classée dans l'index international des noms des plantes, l'IPNI.
 Cette espèce a été déclarée en danger critique d'extinction selon les critères de l'Union internationale pour la conservation de la nature (IUCN) en 2000.
-Elle aurait potentiellement complètement disparu de nos jours[6].
+Elle aurait potentiellement complètement disparu de nos jours.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Habitat et distribution géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette plante a été uniquement collectée sur le mont Cameroun et il est à présent supposé qu'elle a complètement disparu depuis les années 2000[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante a été uniquement collectée sur le mont Cameroun et il est à présent supposé qu'elle a complètement disparu depuis les années 2000.
 Son habitat serait préférentiellement la forêt, dans des zones subtropicales, en montagne ou basse montagne.
 </t>
         </is>
@@ -579,10 +595,50 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Critiquement en danger
-Cette espèce a été déclarée comme en danger critique d'extinction, voire déjà éteinte, par M. Cheek et S. Cable en 2000[6] et est sur la liste rouge de l'UICN. La principale cause de sa disparition/mise en danger est la déforestation et la destruction de sa sphère écologique native[6].
-Action pour sa conservation
-Il a été suggéré que l'itinéraire suivi par Weberbauer, qui a collecté le seul spécimen connu de Ardisia oligantha sur le mont Cameroun, soit retracé pour chercher s'il existe encore des variétés de cette plante[6].
+          <t>Critiquement en danger</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été déclarée comme en danger critique d'extinction, voire déjà éteinte, par M. Cheek et S. Cable en 2000 et est sur la liste rouge de l'UICN. La principale cause de sa disparition/mise en danger est la déforestation et la destruction de sa sphère écologique native.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ardisia_oligantha</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ardisia_oligantha</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Action pour sa conservation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a été suggéré que l'itinéraire suivi par Weberbauer, qui a collecté le seul spécimen connu de Ardisia oligantha sur le mont Cameroun, soit retracé pour chercher s'il existe encore des variétés de cette plante.
 </t>
         </is>
       </c>
